--- a/badbaby/static/badbaby_final_121818.xlsx
+++ b/badbaby/static/badbaby_final_121818.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="459">
   <si>
     <t xml:space="preserve">2 months-old</t>
   </si>
@@ -1279,9 +1279,6 @@
   </si>
   <si>
     <t xml:space="preserve">Epoching fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
   </si>
   <si>
     <t xml:space="preserve">8 lbs 2 ozs</t>
@@ -1417,14 +1414,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="169" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="170" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="169" formatCode="MMM\-YY"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -2033,7 +2029,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2049,7 +2045,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2255,13 +2251,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="24.34"/>
   </cols>
   <sheetData>
@@ -3416,7 +3412,7 @@
     <row r="31" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A30)</f>
-        <v> N = 29</v>
+        <v>N = 29</v>
       </c>
       <c r="B31" s="29" t="str">
         <f aca="false">COUNTIF(B2:B30,"M")&amp;" Males; "&amp;COUNTIF(B2:B30,"F")&amp;" Females"</f>
@@ -4617,7 +4613,7 @@
     <row r="63" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A32:A62)</f>
-        <v> N = 31</v>
+        <v>N = 31</v>
       </c>
       <c r="B63" s="29" t="str">
         <f aca="false">COUNTIF(B32:B62,"M")&amp;" Males; "&amp;COUNTIF(B32:B62,"F")&amp;" Females"</f>
@@ -5455,13 +5451,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="49" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="24.34"/>
   </cols>
@@ -7764,7 +7760,7 @@
     <row r="54" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A53)</f>
-        <v> N = 52</v>
+        <v>N = 52</v>
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -7790,23 +7786,23 @@
       </c>
       <c r="I54" s="9" t="str">
         <f aca="false">" N = "&amp;SUM(I2:I53)</f>
-        <v> N = 48</v>
+        <v>N = 48</v>
       </c>
       <c r="J54" s="9" t="str">
         <f aca="false">" N = "&amp;SUM(J2:J53)</f>
-        <v> N = 50</v>
+        <v>N = 50</v>
       </c>
       <c r="K54" s="9" t="str">
         <f aca="false">" N = "&amp;SUM(K2:K53)</f>
-        <v> N = 41</v>
+        <v>N = 41</v>
       </c>
       <c r="L54" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L2:L53,"3")</f>
-        <v> N = 37</v>
+        <v>N = 37</v>
       </c>
       <c r="M54" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M2:M53,"TRUE")</f>
-        <v> N = 27</v>
+        <v>N = 27</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9572,7 +9568,7 @@
     <row r="95" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A55:A94)</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
@@ -9594,27 +9590,27 @@
       </c>
       <c r="H95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(H55:H94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="I95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(I55:I94,"1")</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="J95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(J55:J94,"1")</f>
-        <v> N = 38</v>
+        <v>N = 38</v>
       </c>
       <c r="K95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(K55:K94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="L95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L55:L94,"3")</f>
-        <v> N = 32</v>
+        <v>N = 32</v>
       </c>
       <c r="M95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M55:M94,"TRUE")</f>
-        <v> N = 26</v>
+        <v>N = 26</v>
       </c>
     </row>
     <row r="65536" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14006,7 +14002,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O27" activeCellId="0" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="P114" activeCellId="0" sqref="P114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14015,14 +14011,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="65" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="66" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="51.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="51.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="61.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="23" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="54.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="33" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="38" style="0" width="15.83"/>
@@ -24277,12 +24273,8 @@
       <c r="N111" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="O111" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="P111" s="76" t="n">
-        <v>0</v>
-      </c>
+      <c r="O111" s="81"/>
+      <c r="P111" s="76"/>
       <c r="Q111" s="76"/>
       <c r="R111" s="76"/>
       <c r="S111" s="76"/>
@@ -24303,14 +24295,14 @@
       <c r="AB111" s="76"/>
       <c r="AC111" s="76"/>
       <c r="AD111" s="76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AE111" s="76" t="n">
         <f aca="false">8*16+2</f>
         <v>130</v>
       </c>
       <c r="AF111" s="74" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG111" s="74"/>
       <c r="AH111" s="74"/>
@@ -24544,9 +24536,7 @@
       <c r="O114" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="P114" s="76" t="n">
-        <v>0</v>
-      </c>
+      <c r="P114" s="76"/>
       <c r="Q114" s="76" t="n">
         <v>18</v>
       </c>
@@ -24595,7 +24585,7 @@
         <v>42367</v>
       </c>
       <c r="C115" s="74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D115" s="75" t="s">
         <v>295</v>
@@ -24684,7 +24674,7 @@
         <v>42250</v>
       </c>
       <c r="C116" s="74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D116" s="75" t="s">
         <v>295</v>
@@ -24881,69 +24871,69 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>421</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>431</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C11" s="85"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B12" s="87"/>
       <c r="C12" s="88"/>
@@ -24953,7 +24943,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C13" s="85"/>
     </row>
@@ -24962,7 +24952,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C14" s="85"/>
     </row>
@@ -24971,7 +24961,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15" s="85"/>
     </row>
@@ -24980,7 +24970,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C16" s="85"/>
     </row>
@@ -24989,7 +24979,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C17" s="85"/>
     </row>
@@ -24998,7 +24988,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C18" s="85"/>
     </row>
@@ -25007,28 +24997,28 @@
         <v>7</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" s="85"/>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25036,7 +25026,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25044,7 +25034,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25052,7 +25042,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25060,7 +25050,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25068,7 +25058,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -25097,7 +25087,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.49"/>
@@ -25135,7 +25125,7 @@
         <v>272</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J1" s="90" t="s">
         <v>293</v>
@@ -25518,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="93" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="59"/>
@@ -26819,7 +26809,7 @@
       <c r="K32" s="94"/>
       <c r="L32" s="59"/>
       <c r="M32" s="60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
@@ -31318,7 +31308,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="97" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K116" s="92"/>
       <c r="L116" s="59"/>
@@ -31422,7 +31412,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.17"/>
@@ -31452,7 +31442,7 @@
         <v>270</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1" s="59"/>
       <c r="I1" s="59"/>
@@ -31731,7 +31721,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
@@ -33057,7 +33047,7 @@
         <v>1800</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>1</v>
@@ -33885,7 +33875,7 @@
         <v>1800</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F54" s="18" t="n">
         <v>1</v>
@@ -36819,7 +36809,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="99" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="99" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="99" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="99" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="99" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="99" width="15"/>
   </cols>
   <sheetData>
@@ -37863,7 +37853,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="99" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F52" s="99" t="n">
         <v>2</v>

--- a/badbaby/static/badbaby_final_121818.xlsx
+++ b/badbaby/static/badbaby_final_121818.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="470">
   <si>
     <t xml:space="preserve">2 months-old</t>
   </si>
@@ -837,7 +837,574 @@
     <t xml:space="preserve">0431; 0641</t>
   </si>
   <si>
-    <t xml:space="preserve">BAD</t>
+    <t xml:space="preserve">subjId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badCh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samplingRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rejection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epoching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavioral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simmInclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">headSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maternalEdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maternalHscore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paternalEdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paternalHscore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maternalEthno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paternalEthno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nSibs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sib1dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sib1gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sib2dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sib2gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sib3dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sib3gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthWeight(lbs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 8 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 12 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian/Pacific islander/white-not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 11 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian/Pacific Islander and Hispanic/Latino and White and Native American/Eskimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 5 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 5 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 14 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 10 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Not Hispanic/Latino, Black, Native-American/Eskimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 2 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 5 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cHPI inactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 8 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2112, MEG0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian/Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Not Hispanic/Latino, Native American/Eskimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIspanic/Latino, White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 0 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 11 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic/Latino, White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 3 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1443, MEG2622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic/Latino, White, Native American/Eskimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian/Pacific Islander, White-Not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 11 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-Not hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 15 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 13 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 1 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2623, MEG0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 15 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1413, MEG1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-Not Hispanic/Latino, Native American/Eskimo, White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 12 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0933, MEG0141, MEG0111, MEG1421, MEG1541, MEG1431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black- Not Hispanic Latino, Native American/Eskimo, White, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 15 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 1 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head origin outside of helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic/Latino and Black Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-Not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian/Pacific Islander, White-Not Hispanic/Latino, Black- Not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Not Hispanic Latino, Native American/Eskimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 lbs 10 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native American/Eskimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 4 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Not Hispanic Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs 13 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cHPI Inactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-African</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 8 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 9 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 10 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 12 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 lbs, 15 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 2 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs, 11 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 14 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1112, MEG1433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 lbs 6 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 7 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0733, MEG0641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 4 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2542, MEG2512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0413, MEG2132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Not Hispanic/Latino, Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 7 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuntimeError: Coil too close (dist = 4.88638e-06 m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0142, MEG2623, MEG2432, MEG0611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 lbs 6 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 lbs 11 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2112, MEG2431, MEG0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 6 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 1 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG2542, MEG1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1832, MEG0412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1421, MEG1431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian/Pacific Islander, White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No STIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1413, MEG0622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 lbs 3 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoching fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 lbs 2 ozs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(NOT ON BEZOS OR SIMMS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG1823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG0431, MEG0641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom yrs Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom's years of education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H Ed Score M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom's hollingshead education score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dad yrs Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dad's years of education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H ed Score D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dad's hollingshead education score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom R/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom's Race/Ethnicity listed on parental demographic questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dad R/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dad's Race/Ethnicity listed on parental demographic questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollingshead Scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than 7th grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at through the 9 th grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial high school (10 or 11th grade)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high school graduate (regardless of type of school)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial college (at least one year) or specialized training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">college or university graduate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graduate professional training (with graduate degree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years of education scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If years of highschool listed, 8+[listed years]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If years of college/grad school listed, 12+ [listed years]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If # of years not listed then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high school diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelors degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Law degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD</t>
   </si>
   <si>
     <t xml:space="preserve">ACQ</t>
@@ -852,544 +1419,10 @@
     <t xml:space="preserve">Epochs</t>
   </si>
   <si>
-    <t xml:space="preserve">complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simms_inclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgeDays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MomEduYrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MomHscore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DadEduYrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DadHscore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MomEth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DadEth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nsibs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB Sib 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex sib 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB sib 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex Sib 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB Sib 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex Sib 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bwoz</t>
+    <t xml:space="preserve">Included</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White-Not Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 8 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 12 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian/Pacific islander/white-not Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 11 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian/Pacific Islander and Hispanic/Latino and White and Native American/Eskimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 5 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 5 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 14 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 10 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White-Not Hispanic/Latino, Black, Native-American/Eskimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 2 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 5 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cHPI inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 8 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2112, MEG0212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian/Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White-Not Hispanic/Latino, Native American/Eskimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIspanic/Latino, White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 0 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 11 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic/Latino, White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 3 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1443, MEG2622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic/Latino, White, Native American/Eskimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian/Pacific Islander, White-Not Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 11 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black-Not hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 15 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 13 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 1 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2623, MEG0933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 15 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1413, MEG1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black-Not Hispanic/Latino, Native American/Eskimo, White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 12 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0933, MEG0141, MEG0111, MEG1421, MEG1541, MEG1431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black- Not Hispanic Latino, Native American/Eskimo, White, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 15 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 1 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head origin outside of helmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic/Latino and Black Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black-Not Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian/Pacific Islander, White-Not Hispanic/Latino, Black- Not Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White-Not Hispanic Latino, Native American/Eskimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 lbs 10 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native American/Eskimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 4 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White-Not Hispanic Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs 13 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cHPI Inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black-African</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 8 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 9 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 10 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 12 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 lbs, 15 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 2 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs, 11 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 14 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1112, MEG1433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 lbs 6 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 7 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCA fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0733, MEG0641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 4 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2542, MEG2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0413, MEG2132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White-Not Hispanic/Latino, Hispanic/Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 7 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuntimeError: Coil too close (dist = 4.88638e-06 m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0142, MEG2623, MEG2432, MEG0611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 lbs 6 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 lbs 11 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2112, MEG2431, MEG0212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 6 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 1 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG2542, MEG1042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1832, MEG0412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1421, MEG1431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian/Pacific Islander, White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No STIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1413, MEG0622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 lbs 3 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoching fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 lbs 2 ozs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(NOT ON BEZOS OR SIMMS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG1823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEG0431, MEG0641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom yrs Ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom's years of education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H Ed Score M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom's hollingshead education score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dad yrs Ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dad's years of education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H ed Score D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dad's hollingshead education score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom R/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom's Race/Ethnicity listed on parental demographic questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dad R/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dad's Race/Ethnicity listed on parental demographic questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollingshead Scoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 7th grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at through the 9 th grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial high school (10 or 11th grade)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high school graduate (regardless of type of school)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial college (at least one year) or specialized training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">college or university graduate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graduate professional training (with graduate degree)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years of education scoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If years of highschool listed, 8+[listed years]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If years of college/grad school listed, 12+ [listed years]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If # of years not listed then</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high school diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelors degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masters degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Included</t>
   </si>
   <si>
     <t xml:space="preserve">scipy.linalg.decomp.svd ValueError: On entry to DLASCL parameter number 4 had an illegal value</t>
@@ -2257,7 +2290,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="24.34"/>
   </cols>
   <sheetData>
@@ -14002,13 +14035,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P114" activeCellId="0" sqref="P114"/>
+      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="49" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="49" width="9.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="65" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.15"/>
@@ -14018,7 +14052,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="51.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="61.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="23" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="54.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="33" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="38" style="0" width="15.83"/>
@@ -14028,100 +14062,100 @@
   <sheetData>
     <row r="1" s="70" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H1" s="67" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M1" s="70" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="Q1" s="70" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="R1" s="70" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S1" s="70" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="T1" s="70" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="U1" s="70" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="V1" s="70" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="W1" s="70" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="X1" s="70" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Z1" s="70" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AA1" s="70" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AB1" s="70" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AC1" s="70" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AD1" s="70" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AE1" s="70" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AF1" s="67" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AG1" s="67"/>
       <c r="AH1" s="67"/>
@@ -14134,10 +14168,10 @@
         <v>42262</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E2" s="74" t="n">
         <f aca="false">IF(mmn!A2=MEG!A2,MEG!E2)</f>
@@ -14190,10 +14224,10 @@
         <v>6</v>
       </c>
       <c r="U2" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V2" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W2" s="76" t="n">
         <v>0</v>
@@ -14205,7 +14239,7 @@
       <c r="AB2" s="76"/>
       <c r="AC2" s="76"/>
       <c r="AD2" s="76" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AE2" s="76" t="n">
         <f aca="false">8*16+8</f>
@@ -14223,10 +14257,10 @@
         <v>42293</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E3" s="74" t="n">
         <f aca="false">IF(mmn!A3=MEG!A3,MEG!E3)</f>
@@ -14279,10 +14313,10 @@
         <v>5</v>
       </c>
       <c r="U3" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V3" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W3" s="76" t="n">
         <v>2</v>
@@ -14302,7 +14336,7 @@
       <c r="AB3" s="76"/>
       <c r="AC3" s="76"/>
       <c r="AD3" s="76" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AE3" s="76" t="n">
         <f aca="false">8*16+12</f>
@@ -14320,10 +14354,10 @@
         <v>42276</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E4" s="74" t="n">
         <f aca="false">IF(mmn!A4=MEG!A4,MEG!E4)</f>
@@ -14376,10 +14410,10 @@
         <v>5</v>
       </c>
       <c r="U4" s="78" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="V4" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W4" s="76" t="n">
         <v>0</v>
@@ -14391,7 +14425,7 @@
       <c r="AB4" s="76"/>
       <c r="AC4" s="76"/>
       <c r="AD4" s="76" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AE4" s="76" t="n">
         <f aca="false">8*16+11</f>
@@ -14409,10 +14443,10 @@
         <v>42286</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E5" s="74" t="n">
         <f aca="false">IF(mmn!A5=MEG!A5,MEG!E5)</f>
@@ -14465,10 +14499,10 @@
         <v>5</v>
       </c>
       <c r="U5" s="78" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="V5" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W5" s="76" t="n">
         <v>1</v>
@@ -14484,7 +14518,7 @@
       <c r="AB5" s="76"/>
       <c r="AC5" s="76"/>
       <c r="AD5" s="76" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AE5" s="76" t="n">
         <f aca="false">7*16+5</f>
@@ -14502,10 +14536,10 @@
         <v>42279</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E6" s="74" t="n">
         <f aca="false">IF(mmn!A6=MEG!A6,MEG!E6)</f>
@@ -14558,10 +14592,10 @@
         <v>5</v>
       </c>
       <c r="U6" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="V6" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W6" s="76" t="n">
         <v>0</v>
@@ -14573,7 +14607,7 @@
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
       <c r="AD6" s="76" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AE6" s="76" t="n">
         <f aca="false">8*16+5</f>
@@ -14591,10 +14625,10 @@
         <v>42286</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E7" s="74" t="n">
         <f aca="false">IF(mmn!A7=MEG!A7,MEG!E7)</f>
@@ -14647,10 +14681,10 @@
         <v>4</v>
       </c>
       <c r="U7" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="V7" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W7" s="76" t="n">
         <v>1</v>
@@ -14666,7 +14700,7 @@
       <c r="AB7" s="76"/>
       <c r="AC7" s="76"/>
       <c r="AD7" s="76" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AE7" s="76" t="n">
         <f aca="false">6*16+14</f>
@@ -14684,10 +14718,10 @@
         <v>42314</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E8" s="74" t="n">
         <f aca="false">IF(mmn!A8=MEG!A8,MEG!E8)</f>
@@ -14740,10 +14774,10 @@
         <v>3</v>
       </c>
       <c r="U8" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V8" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W8" s="76" t="n">
         <v>1</v>
@@ -14759,7 +14793,7 @@
       <c r="AB8" s="76"/>
       <c r="AC8" s="76"/>
       <c r="AD8" s="76" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AE8" s="76" t="n">
         <f aca="false">8*16+11</f>
@@ -14777,10 +14811,10 @@
         <v>42310</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E9" s="74" t="n">
         <f aca="false">IF(mmn!A9=MEG!A9,MEG!E9)</f>
@@ -14833,10 +14867,10 @@
         <v>4</v>
       </c>
       <c r="U9" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V9" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W9" s="76" t="n">
         <v>1</v>
@@ -14852,7 +14886,7 @@
       <c r="AB9" s="76"/>
       <c r="AC9" s="76"/>
       <c r="AD9" s="76" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AE9" s="76" t="n">
         <f aca="false">6*16+14</f>
@@ -14870,10 +14904,10 @@
         <v>42313</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E10" s="74" t="n">
         <f aca="false">IF(mmn!A10=MEG!A10,MEG!E10)</f>
@@ -14926,10 +14960,10 @@
         <v>5</v>
       </c>
       <c r="U10" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V10" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W10" s="76" t="n">
         <v>2</v>
@@ -14949,7 +14983,7 @@
       <c r="AB10" s="76"/>
       <c r="AC10" s="76"/>
       <c r="AD10" s="76" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE10" s="76" t="n">
         <f aca="false">6*16+10</f>
@@ -14967,10 +15001,10 @@
         <v>42300</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E11" s="74" t="n">
         <f aca="false">IF(mmn!A11=MEG!A11,MEG!E11)</f>
@@ -15019,7 +15053,7 @@
       <c r="S11" s="76"/>
       <c r="T11" s="76"/>
       <c r="U11" s="78" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="V11" s="78"/>
       <c r="W11" s="76" t="n">
@@ -15036,7 +15070,7 @@
       <c r="AB11" s="76"/>
       <c r="AC11" s="76"/>
       <c r="AD11" s="76" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AE11" s="76" t="n">
         <f aca="false">6*16+2</f>
@@ -15054,10 +15088,10 @@
         <v>42304</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E12" s="74" t="n">
         <f aca="false">IF(mmn!A12=MEG!A12,MEG!E12)</f>
@@ -15110,10 +15144,10 @@
         <v>6</v>
       </c>
       <c r="U12" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="V12" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W12" s="76" t="n">
         <v>1</v>
@@ -15129,14 +15163,14 @@
       <c r="AB12" s="76"/>
       <c r="AC12" s="76"/>
       <c r="AD12" s="76" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AE12" s="76" t="n">
         <f aca="false">6*16+5</f>
         <v>101</v>
       </c>
       <c r="AF12" s="74" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG12" s="74"/>
       <c r="AH12" s="74"/>
@@ -15149,10 +15183,10 @@
         <v>42320</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E13" s="74" t="n">
         <f aca="false">IF(mmn!A13=MEG!A13,MEG!E13)</f>
@@ -15205,10 +15239,10 @@
         <v>4</v>
       </c>
       <c r="U13" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V13" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W13" s="76" t="n">
         <v>0</v>
@@ -15220,7 +15254,7 @@
       <c r="AB13" s="76"/>
       <c r="AC13" s="76"/>
       <c r="AD13" s="76" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AE13" s="76" t="n">
         <f aca="false">8*16+8</f>
@@ -15238,10 +15272,10 @@
         <v>42320</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E14" s="74" t="n">
         <f aca="false">IF(mmn!A14=MEG!A14,MEG!E14)</f>
@@ -15294,10 +15328,10 @@
         <v>4</v>
       </c>
       <c r="U14" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V14" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W14" s="76" t="n">
         <v>1</v>
@@ -15313,7 +15347,7 @@
       <c r="AB14" s="76"/>
       <c r="AC14" s="76"/>
       <c r="AD14" s="76" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AE14" s="76" t="n">
         <f aca="false">8*16+5</f>
@@ -15331,10 +15365,10 @@
         <v>42321</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E15" s="74" t="n">
         <f aca="false">IF(mmn!A15=MEG!A15,MEG!E15)</f>
@@ -15388,10 +15422,10 @@
         <v>6</v>
       </c>
       <c r="U15" s="78" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V15" s="78" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="W15" s="76" t="n">
         <v>0</v>
@@ -15403,7 +15437,7 @@
       <c r="AB15" s="76"/>
       <c r="AC15" s="76"/>
       <c r="AD15" s="76" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AE15" s="76" t="n">
         <f aca="false">6*16+6</f>
@@ -15421,10 +15455,10 @@
         <v>42462</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E16" s="74" t="n">
         <f aca="false">IF(mmn!A16=MEG!A16,MEG!E16)</f>
@@ -15478,10 +15512,10 @@
         <v>6</v>
       </c>
       <c r="U16" s="78" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V16" s="78" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="W16" s="76" t="n">
         <v>0</v>
@@ -15493,7 +15527,7 @@
       <c r="AB16" s="76"/>
       <c r="AC16" s="76"/>
       <c r="AD16" s="76" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AE16" s="76" t="n">
         <f aca="false">6*16+5</f>
@@ -15511,10 +15545,10 @@
         <v>42326</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E17" s="74" t="n">
         <f aca="false">IF(mmn!A17=MEG!A17,MEG!E17)</f>
@@ -15567,10 +15601,10 @@
         <v>5</v>
       </c>
       <c r="U17" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V17" s="78" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="W17" s="76" t="n">
         <v>2</v>
@@ -15590,7 +15624,7 @@
       <c r="AB17" s="76"/>
       <c r="AC17" s="76"/>
       <c r="AD17" s="76" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AE17" s="76" t="n">
         <f aca="false">7*16</f>
@@ -15608,10 +15642,10 @@
         <v>42452</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E18" s="74" t="n">
         <f aca="false">IF(mmn!A18=MEG!A18,MEG!E18)</f>
@@ -15665,10 +15699,10 @@
         <v>5</v>
       </c>
       <c r="U18" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V18" s="78" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="W18" s="76" t="n">
         <v>2</v>
@@ -15688,14 +15722,14 @@
       <c r="AB18" s="76"/>
       <c r="AC18" s="76"/>
       <c r="AD18" s="76" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AE18" s="76" t="n">
         <f aca="false">7*16</f>
         <v>112</v>
       </c>
       <c r="AF18" s="74" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG18" s="74"/>
       <c r="AH18" s="74"/>
@@ -15708,10 +15742,10 @@
         <v>42309</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E19" s="74" t="n">
         <f aca="false">IF(mmn!A19=MEG!A19,MEG!E19)</f>
@@ -15764,10 +15798,10 @@
         <v>6</v>
       </c>
       <c r="U19" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V19" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W19" s="76" t="n">
         <v>2</v>
@@ -15787,7 +15821,7 @@
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
       <c r="AD19" s="76" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AE19" s="76" t="n">
         <f aca="false">8*16+11</f>
@@ -15805,10 +15839,10 @@
         <v>42325</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E20" s="74" t="n">
         <f aca="false">IF(mmn!A20=MEG!A20,MEG!E20)</f>
@@ -15862,10 +15896,10 @@
         <v>6</v>
       </c>
       <c r="U20" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V20" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W20" s="76" t="n">
         <v>0</v>
@@ -15877,7 +15911,7 @@
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
       <c r="AD20" s="76" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AE20" s="76" t="n">
         <f aca="false">7*16+3</f>
@@ -15895,10 +15929,10 @@
         <v>42466</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E21" s="74" t="n">
         <f aca="false">IF(mmn!A21=MEG!A21,MEG!E21)</f>
@@ -15952,10 +15986,10 @@
         <v>6</v>
       </c>
       <c r="U21" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V21" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W21" s="76" t="n">
         <v>0</v>
@@ -15967,7 +16001,7 @@
       <c r="AB21" s="76"/>
       <c r="AC21" s="76"/>
       <c r="AD21" s="76" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AE21" s="76" t="n">
         <f aca="false">7*16+3</f>
@@ -15985,10 +16019,10 @@
         <v>42332</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E22" s="74" t="n">
         <f aca="false">IF(mmn!A22=MEG!A22,MEG!E22)</f>
@@ -16042,10 +16076,10 @@
         <v>5</v>
       </c>
       <c r="U22" s="78" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="V22" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="W22" s="76" t="n">
         <v>1</v>
@@ -16061,7 +16095,7 @@
       <c r="AB22" s="76"/>
       <c r="AC22" s="76"/>
       <c r="AD22" s="76" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AE22" s="76" t="n">
         <f aca="false">6*16+11</f>
@@ -16079,10 +16113,10 @@
         <v>42451</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E23" s="74" t="n">
         <f aca="false">IF(mmn!A23=MEG!A23,MEG!E23)</f>
@@ -16135,10 +16169,10 @@
         <v>5</v>
       </c>
       <c r="U23" s="78" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="V23" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="W23" s="76" t="n">
         <v>1</v>
@@ -16154,7 +16188,7 @@
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
       <c r="AD23" s="76" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AE23" s="76" t="n">
         <f aca="false">6*16+11</f>
@@ -16172,10 +16206,10 @@
         <v>42339</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E24" s="74" t="n">
         <f aca="false">IF(mmn!A24=MEG!A24,MEG!E24)</f>
@@ -16229,10 +16263,10 @@
         <v>5</v>
       </c>
       <c r="U24" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V24" s="78" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="W24" s="76" t="n">
         <v>2</v>
@@ -16252,7 +16286,7 @@
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
       <c r="AD24" s="76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE24" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -16270,10 +16304,10 @@
         <v>42464</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E25" s="74" t="n">
         <f aca="false">IF(mmn!A25=MEG!A25,MEG!E25)</f>
@@ -16327,10 +16361,10 @@
         <v>5</v>
       </c>
       <c r="U25" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V25" s="78" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="W25" s="76" t="n">
         <v>2</v>
@@ -16350,7 +16384,7 @@
       <c r="AB25" s="76"/>
       <c r="AC25" s="76"/>
       <c r="AD25" s="76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE25" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -16368,10 +16402,10 @@
         <v>42342</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E26" s="74" t="n">
         <f aca="false">IF(mmn!A26=MEG!A26,MEG!E26)</f>
@@ -16424,10 +16458,10 @@
         <v>6</v>
       </c>
       <c r="U26" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V26" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W26" s="76" t="n">
         <v>0</v>
@@ -16439,7 +16473,7 @@
       <c r="AB26" s="76"/>
       <c r="AC26" s="76"/>
       <c r="AD26" s="76" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AE26" s="76" t="n">
         <f aca="false">8*16+8</f>
@@ -16457,10 +16491,10 @@
         <v>42349</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E27" s="74" t="n">
         <f aca="false">IF(mmn!A27=MEG!A27,MEG!E27)</f>
@@ -16514,10 +16548,10 @@
         <v>4</v>
       </c>
       <c r="U27" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V27" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W27" s="76" t="n">
         <v>1</v>
@@ -16533,7 +16567,7 @@
       <c r="AB27" s="76"/>
       <c r="AC27" s="76"/>
       <c r="AD27" s="76" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AE27" s="76" t="n">
         <f aca="false">7*16</f>
@@ -16551,10 +16585,10 @@
         <v>42464</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E28" s="74" t="n">
         <f aca="false">IF(mmn!A28=MEG!A28,MEG!E28)</f>
@@ -16608,10 +16642,10 @@
         <v>4</v>
       </c>
       <c r="U28" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V28" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W28" s="76" t="n">
         <v>1</v>
@@ -16627,7 +16661,7 @@
       <c r="AB28" s="76"/>
       <c r="AC28" s="76"/>
       <c r="AD28" s="76" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AE28" s="76" t="n">
         <f aca="false">7*16</f>
@@ -16645,10 +16679,10 @@
         <v>42374</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E29" s="74" t="n">
         <f aca="false">IF(mmn!A29=MEG!A29,MEG!E29)</f>
@@ -16701,10 +16735,10 @@
         <v>5</v>
       </c>
       <c r="U29" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V29" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W29" s="76" t="n">
         <v>1</v>
@@ -16720,7 +16754,7 @@
       <c r="AB29" s="76"/>
       <c r="AC29" s="76"/>
       <c r="AD29" s="76" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AE29" s="76" t="n">
         <f aca="false">8*16+13</f>
@@ -16738,10 +16772,10 @@
         <v>42383</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E30" s="74" t="n">
         <f aca="false">IF(mmn!A30=MEG!A30,MEG!E30)</f>
@@ -16795,10 +16829,10 @@
         <v>7</v>
       </c>
       <c r="U30" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V30" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W30" s="76" t="n">
         <v>2</v>
@@ -16818,14 +16852,14 @@
       <c r="AB30" s="76"/>
       <c r="AC30" s="76"/>
       <c r="AD30" s="76" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AE30" s="76" t="n">
         <f aca="false">7*16+1</f>
         <v>113</v>
       </c>
       <c r="AF30" s="74" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG30" s="74"/>
       <c r="AH30" s="74"/>
@@ -16838,10 +16872,10 @@
         <v>42394</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E31" s="74" t="n">
         <f aca="false">IF(mmn!A31=MEG!A31,MEG!E31)</f>
@@ -16895,10 +16929,10 @@
         <v>5</v>
       </c>
       <c r="U31" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V31" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W31" s="76" t="n">
         <v>0</v>
@@ -16910,7 +16944,7 @@
       <c r="AB31" s="76"/>
       <c r="AC31" s="76"/>
       <c r="AD31" s="76" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AE31" s="76" t="n">
         <f aca="false">7*16+15</f>
@@ -16928,10 +16962,10 @@
         <v>42528</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E32" s="74" t="n">
         <f aca="false">IF(mmn!A32=MEG!A32,MEG!E32)</f>
@@ -16985,10 +17019,10 @@
         <v>5</v>
       </c>
       <c r="U32" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V32" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W32" s="76" t="n">
         <v>0</v>
@@ -17000,7 +17034,7 @@
       <c r="AB32" s="76"/>
       <c r="AC32" s="76"/>
       <c r="AD32" s="76" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AE32" s="76" t="n">
         <f aca="false">7*16+15</f>
@@ -17018,10 +17052,10 @@
         <v>42395</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E33" s="74" t="n">
         <f aca="false">IF(mmn!A33=MEG!A33,MEG!E33)</f>
@@ -17075,10 +17109,10 @@
         <v>4</v>
       </c>
       <c r="U33" s="78" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="V33" s="78" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="W33" s="76" t="n">
         <v>1</v>
@@ -17094,7 +17128,7 @@
       <c r="AB33" s="76"/>
       <c r="AC33" s="76"/>
       <c r="AD33" s="76" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AE33" s="76" t="n">
         <f aca="false">6*16+12</f>
@@ -17112,10 +17146,10 @@
         <v>42534</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E34" s="74" t="n">
         <f aca="false">IF(mmn!A34=MEG!A34,MEG!E34)</f>
@@ -17169,10 +17203,10 @@
         <v>4</v>
       </c>
       <c r="U34" s="78" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="V34" s="78" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="W34" s="76" t="n">
         <v>1</v>
@@ -17188,7 +17222,7 @@
       <c r="AB34" s="76"/>
       <c r="AC34" s="76"/>
       <c r="AD34" s="76" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AE34" s="76" t="n">
         <f aca="false">6*16+12</f>
@@ -17206,10 +17240,10 @@
         <v>42398</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E35" s="74" t="n">
         <f aca="false">IF(mmn!A35=MEG!A35,MEG!E35)</f>
@@ -17263,10 +17297,10 @@
         <v>5</v>
       </c>
       <c r="U35" s="78" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="V35" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W35" s="76" t="n">
         <v>1</v>
@@ -17282,7 +17316,7 @@
       <c r="AB35" s="76"/>
       <c r="AC35" s="76"/>
       <c r="AD35" s="76" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AE35" s="76" t="n">
         <f aca="false">8*16+15</f>
@@ -17300,10 +17334,10 @@
         <v>42535</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E36" s="74" t="n">
         <f aca="false">IF(mmn!A36=MEG!A36,MEG!E36)</f>
@@ -17357,10 +17391,10 @@
         <v>5</v>
       </c>
       <c r="U36" s="78" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="V36" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W36" s="76" t="n">
         <v>1</v>
@@ -17376,7 +17410,7 @@
       <c r="AB36" s="76"/>
       <c r="AC36" s="76"/>
       <c r="AD36" s="76" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AE36" s="76" t="n">
         <f aca="false">8*16+15</f>
@@ -17394,10 +17428,10 @@
         <v>42410</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E37" s="74" t="n">
         <f aca="false">IF(mmn!A37=MEG!A37,MEG!E37)</f>
@@ -17450,10 +17484,10 @@
         <v>3</v>
       </c>
       <c r="U37" s="78" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V37" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W37" s="76" t="n">
         <v>1</v>
@@ -17469,7 +17503,7 @@
       <c r="AB37" s="76"/>
       <c r="AC37" s="76"/>
       <c r="AD37" s="76" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AE37" s="76" t="n">
         <f aca="false">7*16+1</f>
@@ -17487,10 +17521,10 @@
         <v>42558</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E38" s="74" t="n">
         <f aca="false">IF(mmn!A38=MEG!A38,MEG!E38)</f>
@@ -17544,10 +17578,10 @@
         <v>3</v>
       </c>
       <c r="U38" s="78" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V38" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W38" s="76" t="n">
         <v>1</v>
@@ -17563,14 +17597,14 @@
       <c r="AB38" s="76"/>
       <c r="AC38" s="76"/>
       <c r="AD38" s="76" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AE38" s="76" t="n">
         <f aca="false">7*16+1</f>
         <v>113</v>
       </c>
       <c r="AF38" s="82" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AG38" s="82"/>
       <c r="AH38" s="82"/>
@@ -17583,10 +17617,10 @@
         <v>42426</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E39" s="74" t="n">
         <f aca="false">IF(mmn!A39=MEG!A39,MEG!E39)</f>
@@ -17640,10 +17674,10 @@
         <v>4</v>
       </c>
       <c r="U39" s="78" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V39" s="78" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="W39" s="76" t="n">
         <v>1</v>
@@ -17659,7 +17693,7 @@
       <c r="AB39" s="76"/>
       <c r="AC39" s="76"/>
       <c r="AD39" s="76" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE39" s="76" t="n">
         <f aca="false">6*16+10</f>
@@ -17677,10 +17711,10 @@
         <v>42550</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E40" s="74" t="n">
         <f aca="false">IF(mmn!A40=MEG!A40,MEG!E40)</f>
@@ -17734,10 +17768,10 @@
         <v>4</v>
       </c>
       <c r="U40" s="78" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V40" s="78" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="W40" s="76" t="n">
         <v>1</v>
@@ -17753,7 +17787,7 @@
       <c r="AB40" s="76"/>
       <c r="AC40" s="76"/>
       <c r="AD40" s="76" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE40" s="76" t="n">
         <f aca="false">6*16+10</f>
@@ -17771,10 +17805,10 @@
         <v>42467</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E41" s="74" t="n">
         <f aca="false">IF(mmn!A41=MEG!A41,MEG!E41)</f>
@@ -17828,10 +17862,10 @@
         <v>5</v>
       </c>
       <c r="U41" s="78" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="V41" s="78" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="W41" s="76" t="n">
         <v>3</v>
@@ -17855,7 +17889,7 @@
         <v>28</v>
       </c>
       <c r="AD41" s="76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE41" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -17873,10 +17907,10 @@
         <v>42467</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E42" s="74" t="n">
         <f aca="false">IF(mmn!A42=MEG!A42,MEG!E42)</f>
@@ -17930,10 +17964,10 @@
         <v>6</v>
       </c>
       <c r="U42" s="78" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="V42" s="78" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="W42" s="76" t="n">
         <v>3</v>
@@ -17957,7 +17991,7 @@
         <v>28</v>
       </c>
       <c r="AD42" s="76" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AE42" s="76" t="n">
         <f aca="false">9*16+10</f>
@@ -17975,10 +18009,10 @@
         <v>42598</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E43" s="74" t="n">
         <f aca="false">IF(mmn!A43=MEG!A43,MEG!E43)</f>
@@ -18032,10 +18066,10 @@
         <v>6</v>
       </c>
       <c r="U43" s="78" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="V43" s="78" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="W43" s="76" t="n">
         <v>3</v>
@@ -18059,7 +18093,7 @@
         <v>28</v>
       </c>
       <c r="AD43" s="76" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AE43" s="76" t="n">
         <f aca="false">9*16+10</f>
@@ -18077,10 +18111,10 @@
         <v>42475</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E44" s="74" t="n">
         <f aca="false">IF(mmn!A44=MEG!A44,MEG!E44)</f>
@@ -18134,10 +18168,10 @@
         <v>2</v>
       </c>
       <c r="U44" s="78" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="V44" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W44" s="76" t="n">
         <v>3</v>
@@ -18161,7 +18195,7 @@
         <v>35</v>
       </c>
       <c r="AD44" s="76" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AE44" s="76" t="n">
         <f aca="false">7*16+4</f>
@@ -18179,10 +18213,10 @@
         <v>42604</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D45" s="75" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E45" s="74" t="n">
         <f aca="false">IF(mmn!A45=MEG!A45,MEG!E45)</f>
@@ -18236,10 +18270,10 @@
         <v>2</v>
       </c>
       <c r="U45" s="78" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="V45" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W45" s="76" t="n">
         <v>3</v>
@@ -18263,7 +18297,7 @@
         <v>35</v>
       </c>
       <c r="AD45" s="76" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AE45" s="76" t="n">
         <f aca="false">7*16+4</f>
@@ -18281,10 +18315,10 @@
         <v>42263</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D46" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E46" s="74" t="n">
         <f aca="false">IF(mmn!A46=MEG!A46,MEG!E46)</f>
@@ -18338,10 +18372,10 @@
         <v>7</v>
       </c>
       <c r="U46" s="78" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V46" s="78" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="W46" s="76" t="n">
         <v>1</v>
@@ -18357,14 +18391,14 @@
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
       <c r="AD46" s="76" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AE46" s="76" t="n">
         <f aca="false">6*16+13</f>
         <v>109</v>
       </c>
       <c r="AF46" s="74" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG46" s="74"/>
       <c r="AH46" s="74"/>
@@ -18377,10 +18411,10 @@
         <v>42262</v>
       </c>
       <c r="C47" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D47" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E47" s="74" t="n">
         <f aca="false">IF(mmn!A47=MEG!A47,MEG!E47)</f>
@@ -18433,10 +18467,10 @@
         <v>7</v>
       </c>
       <c r="U47" s="78" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="V47" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W47" s="76" t="n">
         <v>1</v>
@@ -18452,7 +18486,7 @@
       <c r="AB47" s="76"/>
       <c r="AC47" s="76"/>
       <c r="AD47" s="76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE47" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -18470,10 +18504,10 @@
         <v>42268</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E48" s="74" t="n">
         <f aca="false">IF(mmn!A48=MEG!A48,MEG!E48)</f>
@@ -18526,10 +18560,10 @@
         <v>7</v>
       </c>
       <c r="U48" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V48" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W48" s="76" t="n">
         <v>1</v>
@@ -18545,7 +18579,7 @@
       <c r="AB48" s="76"/>
       <c r="AC48" s="76"/>
       <c r="AD48" s="76" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AE48" s="76" t="n">
         <f aca="false">7*16+8</f>
@@ -18563,10 +18597,10 @@
         <v>42272</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E49" s="74" t="n">
         <f aca="false">IF(mmn!A49=MEG!A49,MEG!E49)</f>
@@ -18619,10 +18653,10 @@
         <v>7</v>
       </c>
       <c r="U49" s="78" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V49" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W49" s="76" t="n">
         <v>0</v>
@@ -18634,14 +18668,14 @@
       <c r="AB49" s="76"/>
       <c r="AC49" s="76"/>
       <c r="AD49" s="76" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AE49" s="76" t="n">
         <f aca="false">8*16+8</f>
         <v>136</v>
       </c>
       <c r="AF49" s="74" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG49" s="74"/>
       <c r="AH49" s="74"/>
@@ -18654,10 +18688,10 @@
         <v>42275</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E50" s="74" t="n">
         <f aca="false">IF(mmn!A50=MEG!A50,MEG!E50)</f>
@@ -18710,10 +18744,10 @@
         <v>7</v>
       </c>
       <c r="U50" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V50" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W50" s="76" t="n">
         <v>1</v>
@@ -18729,7 +18763,7 @@
       <c r="AB50" s="76"/>
       <c r="AC50" s="76"/>
       <c r="AD50" s="76" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AE50" s="76" t="n">
         <f aca="false">8*16+9</f>
@@ -18747,10 +18781,10 @@
         <v>42282</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E51" s="74" t="n">
         <f aca="false">IF(mmn!A51=MEG!A51,MEG!E51)</f>
@@ -18803,10 +18837,10 @@
         <v>6</v>
       </c>
       <c r="U51" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V51" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W51" s="76" t="n">
         <v>0</v>
@@ -18818,7 +18852,7 @@
       <c r="AB51" s="76"/>
       <c r="AC51" s="76"/>
       <c r="AD51" s="76" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AE51" s="76" t="n">
         <f aca="false">7*16+10</f>
@@ -18836,10 +18870,10 @@
         <v>42426</v>
       </c>
       <c r="C52" s="74" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E52" s="74" t="n">
         <f aca="false">IF(mmn!A52=MEG!A52,MEG!E52)</f>
@@ -18893,10 +18927,10 @@
         <v>6</v>
       </c>
       <c r="U52" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V52" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W52" s="76" t="n">
         <v>0</v>
@@ -18908,7 +18942,7 @@
       <c r="AB52" s="76"/>
       <c r="AC52" s="76"/>
       <c r="AD52" s="76" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AE52" s="76" t="n">
         <f aca="false">7*16+10</f>
@@ -18926,10 +18960,10 @@
         <v>42283</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E53" s="74" t="n">
         <f aca="false">IF(mmn!A53=MEG!A53,MEG!E53)</f>
@@ -18983,10 +19017,10 @@
         <v>7</v>
       </c>
       <c r="U53" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V53" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W53" s="76" t="n">
         <v>2</v>
@@ -19006,7 +19040,7 @@
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
       <c r="AD53" s="76" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AE53" s="76" t="n">
         <f aca="false">7*16+12</f>
@@ -19024,10 +19058,10 @@
         <v>42425</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E54" s="74" t="n">
         <f aca="false">IF(mmn!A54=MEG!A54,MEG!E54)</f>
@@ -19081,10 +19115,10 @@
         <v>7</v>
       </c>
       <c r="U54" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V54" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W54" s="76" t="n">
         <v>2</v>
@@ -19104,7 +19138,7 @@
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
       <c r="AD54" s="76" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AE54" s="76" t="n">
         <f aca="false">7*16+12</f>
@@ -19122,10 +19156,10 @@
         <v>42296</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E55" s="74" t="n">
         <f aca="false">IF(mmn!A55=MEG!A55,MEG!E55)</f>
@@ -19179,10 +19213,10 @@
         <v>6</v>
       </c>
       <c r="U55" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V55" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W55" s="76" t="n">
         <v>0</v>
@@ -19194,7 +19228,7 @@
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
       <c r="AD55" s="76" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AE55" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -19212,10 +19246,10 @@
         <v>42422</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E56" s="74" t="n">
         <f aca="false">IF(mmn!A56=MEG!A56,MEG!E56)</f>
@@ -19269,10 +19303,10 @@
         <v>6</v>
       </c>
       <c r="U56" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V56" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W56" s="76" t="n">
         <v>0</v>
@@ -19284,7 +19318,7 @@
       <c r="AB56" s="76"/>
       <c r="AC56" s="76"/>
       <c r="AD56" s="76" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AE56" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -19302,10 +19336,10 @@
         <v>42312</v>
       </c>
       <c r="C57" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E57" s="74" t="n">
         <f aca="false">IF(mmn!A57=MEG!A57,MEG!E57)</f>
@@ -19358,10 +19392,10 @@
         <v>7</v>
       </c>
       <c r="U57" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V57" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W57" s="76" t="n">
         <v>0</v>
@@ -19373,7 +19407,7 @@
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
       <c r="AD57" s="76" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AE57" s="76" t="n">
         <f aca="false">7*16+2</f>
@@ -19391,10 +19425,10 @@
         <v>42331</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E58" s="74" t="n">
         <f aca="false">IF(mmn!A58=MEG!A58,MEG!E58)</f>
@@ -19447,10 +19481,10 @@
         <v>7</v>
       </c>
       <c r="U58" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V58" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W58" s="76" t="n">
         <v>1</v>
@@ -19466,7 +19500,7 @@
       <c r="AB58" s="76"/>
       <c r="AC58" s="76"/>
       <c r="AD58" s="76" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AE58" s="76" t="n">
         <f aca="false">7*16+11</f>
@@ -19484,10 +19518,10 @@
         <v>42328</v>
       </c>
       <c r="C59" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E59" s="74" t="n">
         <f aca="false">IF(mmn!A59=MEG!A59,MEG!E59)</f>
@@ -19540,10 +19574,10 @@
         <v>7</v>
       </c>
       <c r="U59" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V59" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W59" s="76" t="n">
         <v>0</v>
@@ -19555,7 +19589,7 @@
       <c r="AB59" s="76"/>
       <c r="AC59" s="76"/>
       <c r="AD59" s="76" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AE59" s="76" t="n">
         <f aca="false">7*16+14</f>
@@ -19573,10 +19607,10 @@
         <v>42324</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E60" s="74" t="n">
         <f aca="false">IF(mmn!A60=MEG!A60,MEG!E60)</f>
@@ -19630,10 +19664,10 @@
         <v>7</v>
       </c>
       <c r="U60" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="V60" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W60" s="76" t="n">
         <v>0</v>
@@ -19645,7 +19679,7 @@
       <c r="AB60" s="76"/>
       <c r="AC60" s="76"/>
       <c r="AD60" s="76" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AE60" s="76" t="n">
         <f aca="false">7*16</f>
@@ -19663,10 +19697,10 @@
         <v>42462</v>
       </c>
       <c r="C61" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E61" s="74" t="n">
         <f aca="false">IF(mmn!A61=MEG!A61,MEG!E61)</f>
@@ -19720,10 +19754,10 @@
         <v>7</v>
       </c>
       <c r="U61" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="V61" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W61" s="76" t="n">
         <v>0</v>
@@ -19735,7 +19769,7 @@
       <c r="AB61" s="76"/>
       <c r="AC61" s="76"/>
       <c r="AD61" s="76" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AE61" s="76" t="n">
         <f aca="false">7*16</f>
@@ -19753,10 +19787,10 @@
         <v>42328</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E62" s="74" t="n">
         <f aca="false">IF(mmn!A62=MEG!A62,MEG!E62)</f>
@@ -19809,10 +19843,10 @@
         <v>7</v>
       </c>
       <c r="U62" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V62" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W62" s="76" t="n">
         <v>0</v>
@@ -19824,7 +19858,7 @@
       <c r="AB62" s="76"/>
       <c r="AC62" s="76"/>
       <c r="AD62" s="76" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AE62" s="76" t="n">
         <f aca="false">8*16+13</f>
@@ -19842,10 +19876,10 @@
         <v>42340</v>
       </c>
       <c r="C63" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E63" s="74" t="n">
         <f aca="false">IF(mmn!A63=MEG!A63,MEG!E63)</f>
@@ -19898,10 +19932,10 @@
         <v>7</v>
       </c>
       <c r="U63" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="V63" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W63" s="76" t="n">
         <v>0</v>
@@ -19913,7 +19947,7 @@
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
       <c r="AD63" s="76" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE63" s="76" t="n">
         <f aca="false">6*16+10</f>
@@ -19931,10 +19965,10 @@
         <v>42345</v>
       </c>
       <c r="C64" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E64" s="74" t="n">
         <f aca="false">IF(mmn!A64=MEG!A64,MEG!E64)</f>
@@ -19988,10 +20022,10 @@
         <v>6</v>
       </c>
       <c r="U64" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V64" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W64" s="76" t="n">
         <v>1</v>
@@ -20007,7 +20041,7 @@
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
       <c r="AD64" s="76" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AE64" s="76" t="n">
         <f aca="false">7*16+3</f>
@@ -20025,10 +20059,10 @@
         <v>42480</v>
       </c>
       <c r="C65" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E65" s="74" t="n">
         <f aca="false">IF(mmn!A65=MEG!A65,MEG!E65)</f>
@@ -20082,10 +20116,10 @@
         <v>6</v>
       </c>
       <c r="U65" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V65" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W65" s="76" t="n">
         <v>1</v>
@@ -20101,7 +20135,7 @@
       <c r="AB65" s="76"/>
       <c r="AC65" s="76"/>
       <c r="AD65" s="76" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AE65" s="76" t="n">
         <f aca="false">7*16+3</f>
@@ -20119,10 +20153,10 @@
         <v>42375</v>
       </c>
       <c r="C66" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E66" s="74" t="n">
         <f aca="false">IF(mmn!A66=MEG!A66,MEG!E66)</f>
@@ -20176,10 +20210,10 @@
         <v>7</v>
       </c>
       <c r="U66" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V66" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W66" s="76" t="n">
         <v>1</v>
@@ -20195,7 +20229,7 @@
       <c r="AB66" s="76"/>
       <c r="AC66" s="76"/>
       <c r="AD66" s="76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE66" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -20213,10 +20247,10 @@
         <v>42377</v>
       </c>
       <c r="C67" s="74" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E67" s="74" t="n">
         <f aca="false">IF(mmn!A67=MEG!A67,MEG!E67)</f>
@@ -20270,10 +20304,10 @@
         <v>7</v>
       </c>
       <c r="U67" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V67" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W67" s="76" t="n">
         <v>0</v>
@@ -20285,7 +20319,7 @@
       <c r="AB67" s="76"/>
       <c r="AC67" s="76"/>
       <c r="AD67" s="76" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AE67" s="76" t="n">
         <f aca="false">6*16+13</f>
@@ -20303,10 +20337,10 @@
         <v>42502</v>
       </c>
       <c r="C68" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E68" s="74" t="n">
         <f aca="false">IF(mmn!A68=MEG!A68,MEG!E68)</f>
@@ -20360,10 +20394,10 @@
         <v>7</v>
       </c>
       <c r="U68" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V68" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W68" s="76" t="n">
         <v>0</v>
@@ -20375,7 +20409,7 @@
       <c r="AB68" s="76"/>
       <c r="AC68" s="76"/>
       <c r="AD68" s="76" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AE68" s="76" t="n">
         <f aca="false">6*16+13</f>
@@ -20393,10 +20427,10 @@
         <v>42376</v>
       </c>
       <c r="C69" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E69" s="74" t="n">
         <f aca="false">IF(mmn!A69=MEG!A69,MEG!E69)</f>
@@ -20450,10 +20484,10 @@
         <v>7</v>
       </c>
       <c r="U69" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V69" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W69" s="76" t="n">
         <v>0</v>
@@ -20465,7 +20499,7 @@
       <c r="AB69" s="76"/>
       <c r="AC69" s="76"/>
       <c r="AD69" s="76" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AE69" s="76" t="n">
         <f aca="false">5*16+6</f>
@@ -20483,10 +20517,10 @@
         <v>42503</v>
       </c>
       <c r="C70" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E70" s="74" t="n">
         <f aca="false">IF(mmn!A70=MEG!A70,MEG!E70)</f>
@@ -20540,10 +20574,10 @@
         <v>7</v>
       </c>
       <c r="U70" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V70" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W70" s="76" t="n">
         <v>0</v>
@@ -20555,7 +20589,7 @@
       <c r="AB70" s="76"/>
       <c r="AC70" s="76"/>
       <c r="AD70" s="76" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AE70" s="76" t="n">
         <f aca="false">5*16+6</f>
@@ -20573,10 +20607,10 @@
         <v>42384</v>
       </c>
       <c r="C71" s="74" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E71" s="74" t="n">
         <f aca="false">IF(mmn!A71=MEG!A71,MEG!E71)</f>
@@ -20630,10 +20664,10 @@
         <v>7</v>
       </c>
       <c r="U71" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V71" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W71" s="76" t="n">
         <v>0</v>
@@ -20645,7 +20679,7 @@
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
       <c r="AD71" s="76" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AE71" s="76" t="n">
         <f aca="false">7*16+8</f>
@@ -20663,10 +20697,10 @@
         <v>42516</v>
       </c>
       <c r="C72" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E72" s="74" t="n">
         <f aca="false">IF(mmn!A72=MEG!A72,MEG!E72)</f>
@@ -20720,10 +20754,10 @@
         <v>7</v>
       </c>
       <c r="U72" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V72" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W72" s="76" t="n">
         <v>0</v>
@@ -20735,7 +20769,7 @@
       <c r="AB72" s="76"/>
       <c r="AC72" s="76"/>
       <c r="AD72" s="76" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AE72" s="76" t="n">
         <f aca="false">7*16+8</f>
@@ -20753,10 +20787,10 @@
         <v>42397</v>
       </c>
       <c r="C73" s="74" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E73" s="74" t="n">
         <f aca="false">IF(mmn!A73=MEG!A73,MEG!E73)</f>
@@ -20810,10 +20844,10 @@
         <v>7</v>
       </c>
       <c r="U73" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="V73" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W73" s="76" t="n">
         <v>0</v>
@@ -20825,14 +20859,14 @@
       <c r="AB73" s="76"/>
       <c r="AC73" s="76"/>
       <c r="AD73" s="76" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AE73" s="76" t="n">
         <f aca="false">8*16+7</f>
         <v>135</v>
       </c>
       <c r="AF73" s="74" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AG73" s="74"/>
       <c r="AH73" s="74"/>
@@ -20845,10 +20879,10 @@
         <v>42515</v>
       </c>
       <c r="C74" s="74" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E74" s="74" t="n">
         <f aca="false">IF(mmn!A74=MEG!A74,MEG!E74)</f>
@@ -20901,10 +20935,10 @@
         <v>7</v>
       </c>
       <c r="U74" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="V74" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W74" s="76" t="n">
         <v>0</v>
@@ -20916,7 +20950,7 @@
       <c r="AB74" s="76"/>
       <c r="AC74" s="76"/>
       <c r="AD74" s="76" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AE74" s="76" t="n">
         <f aca="false">8*16+7</f>
@@ -20934,10 +20968,10 @@
         <v>42390</v>
       </c>
       <c r="C75" s="74" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E75" s="74" t="n">
         <f aca="false">IF(mmn!A75=MEG!A75,MEG!E75)</f>
@@ -20990,10 +21024,10 @@
         <v>6</v>
       </c>
       <c r="U75" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V75" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W75" s="76" t="n">
         <v>0</v>
@@ -21005,7 +21039,7 @@
       <c r="AB75" s="76"/>
       <c r="AC75" s="76"/>
       <c r="AD75" s="76" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AE75" s="76" t="n">
         <f aca="false">7*16+2</f>
@@ -21023,10 +21057,10 @@
         <v>42404</v>
       </c>
       <c r="C76" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E76" s="74" t="n">
         <f aca="false">IF(mmn!A76=MEG!A76,MEG!E76)</f>
@@ -21080,10 +21114,10 @@
         <v>6</v>
       </c>
       <c r="U76" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V76" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W76" s="76" t="n">
         <v>0</v>
@@ -21095,7 +21129,7 @@
       <c r="AB76" s="76"/>
       <c r="AC76" s="76"/>
       <c r="AD76" s="76" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AE76" s="76" t="n">
         <f aca="false">8*16+4</f>
@@ -21113,10 +21147,10 @@
         <v>42536</v>
       </c>
       <c r="C77" s="74" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E77" s="74" t="n">
         <f aca="false">IF(mmn!A77=MEG!A77,MEG!E77)</f>
@@ -21170,10 +21204,10 @@
         <v>6</v>
       </c>
       <c r="U77" s="78" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V77" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W77" s="76" t="n">
         <v>0</v>
@@ -21185,7 +21219,7 @@
       <c r="AB77" s="76"/>
       <c r="AC77" s="76"/>
       <c r="AD77" s="76" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AE77" s="76" t="n">
         <f aca="false">8*16+4</f>
@@ -21203,10 +21237,10 @@
         <v>42426</v>
       </c>
       <c r="C78" s="74" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E78" s="74" t="n">
         <f aca="false">IF(mmn!A78=MEG!A78,MEG!E78)</f>
@@ -21260,10 +21294,10 @@
         <v>7</v>
       </c>
       <c r="U78" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="V78" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W78" s="76" t="n">
         <v>0</v>
@@ -21275,7 +21309,7 @@
       <c r="AB78" s="76"/>
       <c r="AC78" s="76"/>
       <c r="AD78" s="76" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AE78" s="76" t="n">
         <f aca="false">7*16+10</f>
@@ -21293,10 +21327,10 @@
         <v>42562</v>
       </c>
       <c r="C79" s="74" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E79" s="74" t="n">
         <f aca="false">IF(mmn!A79=MEG!A79,MEG!E79)</f>
@@ -21349,10 +21383,10 @@
         <v>7</v>
       </c>
       <c r="U79" s="78" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="V79" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W79" s="76" t="n">
         <v>0</v>
@@ -21364,7 +21398,7 @@
       <c r="AB79" s="76"/>
       <c r="AC79" s="76"/>
       <c r="AD79" s="76" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AE79" s="76" t="n">
         <f aca="false">7*16+10</f>
@@ -21382,10 +21416,10 @@
         <v>42464</v>
       </c>
       <c r="C80" s="74" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E80" s="74" t="n">
         <f aca="false">IF(mmn!A80=MEG!A80,MEG!E80)</f>
@@ -21439,10 +21473,10 @@
         <v>7</v>
       </c>
       <c r="U80" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V80" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W80" s="76" t="n">
         <v>0</v>
@@ -21454,7 +21488,7 @@
       <c r="AB80" s="76"/>
       <c r="AC80" s="76"/>
       <c r="AD80" s="76" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AE80" s="76" t="n">
         <f aca="false">8*16+13</f>
@@ -21472,10 +21506,10 @@
         <v>42583</v>
       </c>
       <c r="C81" s="74" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E81" s="74" t="n">
         <f aca="false">IF(mmn!A81=MEG!A81,MEG!E81)</f>
@@ -21529,10 +21563,10 @@
         <v>7</v>
       </c>
       <c r="U81" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V81" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W81" s="76" t="n">
         <v>0</v>
@@ -21544,7 +21578,7 @@
       <c r="AB81" s="76"/>
       <c r="AC81" s="76"/>
       <c r="AD81" s="76" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AE81" s="76" t="n">
         <f aca="false">8*16+13</f>
@@ -21562,10 +21596,10 @@
         <v>42751</v>
       </c>
       <c r="C82" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E82" s="74" t="n">
         <f aca="false">IF(tone!B105=MEG!B105,MEG!E105)</f>
@@ -21619,10 +21653,10 @@
         <v>7</v>
       </c>
       <c r="U82" s="78" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V82" s="78" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="W82" s="76" t="n">
         <v>2</v>
@@ -21642,7 +21676,7 @@
       <c r="AB82" s="76"/>
       <c r="AC82" s="76"/>
       <c r="AD82" s="76" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AE82" s="76" t="n">
         <f aca="false">7*16+7</f>
@@ -21660,10 +21694,10 @@
         <v>42863</v>
       </c>
       <c r="C83" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E83" s="74" t="n">
         <f aca="false">IF(tone!B106=MEG!B106,MEG!E106)</f>
@@ -21717,10 +21751,10 @@
         <v>7</v>
       </c>
       <c r="U83" s="78" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V83" s="78" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="W83" s="76" t="n">
         <v>2</v>
@@ -21740,14 +21774,14 @@
       <c r="AB83" s="76"/>
       <c r="AC83" s="76"/>
       <c r="AD83" s="76" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AE83" s="76" t="n">
         <f aca="false">7*16+7</f>
         <v>119</v>
       </c>
       <c r="AF83" s="74" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AG83" s="74"/>
       <c r="AH83" s="74"/>
@@ -21760,10 +21794,10 @@
         <v>42282</v>
       </c>
       <c r="C84" s="74" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E84" s="74" t="n">
         <f aca="false">IF(mmn!A84=MEG!A84,MEG!E84)</f>
@@ -21816,10 +21850,10 @@
         <v>6</v>
       </c>
       <c r="U84" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V84" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W84" s="76" t="n">
         <v>1</v>
@@ -21835,7 +21869,7 @@
       <c r="AB84" s="76"/>
       <c r="AC84" s="76"/>
       <c r="AD84" s="76" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AE84" s="76" t="n">
         <f aca="false">9*16+6</f>
@@ -21853,10 +21887,10 @@
         <v>42416</v>
       </c>
       <c r="C85" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E85" s="74" t="n">
         <f aca="false">IF(mmn!A85=MEG!A85,MEG!E85)</f>
@@ -21910,10 +21944,10 @@
         <v>6</v>
       </c>
       <c r="U85" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V85" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W85" s="76" t="n">
         <v>1</v>
@@ -21929,14 +21963,14 @@
       <c r="AB85" s="76"/>
       <c r="AC85" s="76"/>
       <c r="AD85" s="76" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AE85" s="76" t="n">
         <f aca="false">9*16+6</f>
         <v>150</v>
       </c>
       <c r="AF85" s="74" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG85" s="74"/>
       <c r="AH85" s="74"/>
@@ -21949,10 +21983,10 @@
         <v>42291</v>
       </c>
       <c r="C86" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E86" s="74" t="n">
         <f aca="false">IF(mmn!A86=MEG!A86,MEG!E86)</f>
@@ -22005,10 +22039,10 @@
         <v>5</v>
       </c>
       <c r="U86" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V86" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W86" s="76" t="n">
         <v>2</v>
@@ -22028,7 +22062,7 @@
       <c r="AB86" s="76"/>
       <c r="AC86" s="76"/>
       <c r="AD86" s="76" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AE86" s="76" t="n">
         <f aca="false">7*16+11</f>
@@ -22046,10 +22080,10 @@
         <v>42327</v>
       </c>
       <c r="C87" s="74" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E87" s="74" t="n">
         <f aca="false">IF(mmn!A87=MEG!A87,MEG!E87)</f>
@@ -22102,10 +22136,10 @@
         <v>7</v>
       </c>
       <c r="U87" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V87" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W87" s="76" t="n">
         <v>0</v>
@@ -22117,7 +22151,7 @@
       <c r="AB87" s="76"/>
       <c r="AC87" s="76"/>
       <c r="AD87" s="76" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AE87" s="76" t="n">
         <f aca="false">8*16+6</f>
@@ -22135,10 +22169,10 @@
         <v>42443</v>
       </c>
       <c r="C88" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D88" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E88" s="74" t="n">
         <f aca="false">IF(mmn!A88=MEG!A88,MEG!E88)</f>
@@ -22192,10 +22226,10 @@
         <v>7</v>
       </c>
       <c r="U88" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V88" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W88" s="76" t="n">
         <v>0</v>
@@ -22207,14 +22241,14 @@
       <c r="AB88" s="76"/>
       <c r="AC88" s="76"/>
       <c r="AD88" s="76" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AE88" s="76" t="n">
         <f aca="false">8*16+6</f>
         <v>134</v>
       </c>
       <c r="AF88" s="74" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AG88" s="74"/>
       <c r="AH88" s="74"/>
@@ -22227,10 +22261,10 @@
         <v>42313</v>
       </c>
       <c r="C89" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D89" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E89" s="74" t="n">
         <f aca="false">IF(mmn!A89=MEG!A89,MEG!E89)</f>
@@ -22284,10 +22318,10 @@
         <v>6</v>
       </c>
       <c r="U89" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V89" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W89" s="76" t="n">
         <v>1</v>
@@ -22303,7 +22337,7 @@
       <c r="AB89" s="76"/>
       <c r="AC89" s="76"/>
       <c r="AD89" s="76" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AE89" s="76" t="n">
         <f aca="false">9*16+6</f>
@@ -22321,10 +22355,10 @@
         <v>42359</v>
       </c>
       <c r="C90" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D90" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E90" s="74" t="n">
         <f aca="false">IF(mmn!A90=MEG!A90,MEG!E90)</f>
@@ -22378,10 +22412,10 @@
         <v>6</v>
       </c>
       <c r="U90" s="78" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V90" s="78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W90" s="76" t="n">
         <v>0</v>
@@ -22393,7 +22427,7 @@
       <c r="AB90" s="76"/>
       <c r="AC90" s="76"/>
       <c r="AD90" s="76" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE90" s="76" t="n">
         <f aca="false">6*16+10</f>
@@ -22411,10 +22445,10 @@
         <v>42386</v>
       </c>
       <c r="C91" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D91" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E91" s="74" t="n">
         <f aca="false">IF(mmn!A91=MEG!A91,MEG!E91)</f>
@@ -22468,10 +22502,10 @@
         <v>6</v>
       </c>
       <c r="U91" s="78" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V91" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W91" s="76" t="n">
         <v>1</v>
@@ -22487,7 +22521,7 @@
       <c r="AB91" s="76"/>
       <c r="AC91" s="76"/>
       <c r="AD91" s="76" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AE91" s="76" t="n">
         <f aca="false">8*16+1</f>
@@ -22505,10 +22539,10 @@
         <v>42384</v>
       </c>
       <c r="C92" s="74" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D92" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E92" s="74" t="n">
         <f aca="false">IF(mmn!A92=MEG!A92,MEG!E92)</f>
@@ -22562,10 +22596,10 @@
         <v>6</v>
       </c>
       <c r="U92" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V92" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W92" s="76" t="n">
         <v>0</v>
@@ -22577,7 +22611,7 @@
       <c r="AB92" s="76"/>
       <c r="AC92" s="76"/>
       <c r="AD92" s="76" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AE92" s="76" t="n">
         <f aca="false">8*16+1</f>
@@ -22595,10 +22629,10 @@
         <v>42513</v>
       </c>
       <c r="C93" s="74" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D93" s="75" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E93" s="74" t="n">
         <f aca="false">IF(mmn!A93=MEG!A93,MEG!E93)</f>
@@ -22652,10 +22686,10 @@
         <v>6</v>
       </c>
       <c r="U93" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V93" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W93" s="76" t="n">
         <v>0</v>
@@ -22667,7 +22701,7 @@
       <c r="AB93" s="76"/>
       <c r="AC93" s="76"/>
       <c r="AD93" s="76" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AE93" s="76" t="n">
         <f aca="false">8*16+1</f>
@@ -22685,10 +22719,10 @@
         <v>42381</v>
       </c>
       <c r="C94" s="74" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D94" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E94" s="74" t="n">
         <f aca="false">IF(mmn!A94=MEG!A94,MEG!E94)</f>
@@ -22742,10 +22776,10 @@
         <v>6</v>
       </c>
       <c r="U94" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V94" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W94" s="76" t="n">
         <v>0</v>
@@ -22757,7 +22791,7 @@
       <c r="AB94" s="76"/>
       <c r="AC94" s="76"/>
       <c r="AD94" s="76" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AE94" s="76" t="n">
         <f aca="false">7*16+11</f>
@@ -22775,10 +22809,10 @@
         <v>42503</v>
       </c>
       <c r="C95" s="74" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D95" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E95" s="74" t="n">
         <f aca="false">IF(mmn!A95=MEG!A95,MEG!E95)</f>
@@ -22832,10 +22866,10 @@
         <v>6</v>
       </c>
       <c r="U95" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V95" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W95" s="76" t="n">
         <v>0</v>
@@ -22847,7 +22881,7 @@
       <c r="AB95" s="76"/>
       <c r="AC95" s="76"/>
       <c r="AD95" s="76" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AE95" s="76" t="n">
         <f aca="false">7*16+11</f>
@@ -22865,10 +22899,10 @@
         <v>42395</v>
       </c>
       <c r="C96" s="74" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D96" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E96" s="74" t="n">
         <f aca="false">IF(mmn!A96=MEG!A96,MEG!E96)</f>
@@ -22922,10 +22956,10 @@
         <v>5</v>
       </c>
       <c r="U96" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V96" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W96" s="76" t="n">
         <v>1</v>
@@ -22941,7 +22975,7 @@
       <c r="AB96" s="76"/>
       <c r="AC96" s="76"/>
       <c r="AD96" s="76" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AE96" s="76" t="n">
         <f aca="false">8*16+8</f>
@@ -22959,10 +22993,10 @@
         <v>42522</v>
       </c>
       <c r="C97" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D97" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E97" s="74" t="n">
         <f aca="false">IF(mmn!A97=MEG!A97,MEG!E97)</f>
@@ -23016,10 +23050,10 @@
         <v>5</v>
       </c>
       <c r="U97" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V97" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W97" s="76" t="n">
         <v>1</v>
@@ -23035,7 +23069,7 @@
       <c r="AB97" s="76"/>
       <c r="AC97" s="76"/>
       <c r="AD97" s="76" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AE97" s="76" t="n">
         <f aca="false">8*16+8</f>
@@ -23053,10 +23087,10 @@
         <v>42401</v>
       </c>
       <c r="C98" s="74" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D98" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E98" s="74" t="n">
         <f aca="false">IF(mmn!A98=MEG!A98,MEG!E98)</f>
@@ -23110,10 +23144,10 @@
         <v>6</v>
       </c>
       <c r="U98" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V98" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W98" s="76" t="n">
         <v>1</v>
@@ -23129,7 +23163,7 @@
       <c r="AB98" s="76"/>
       <c r="AC98" s="76"/>
       <c r="AD98" s="76" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AE98" s="76" t="n">
         <f aca="false">7*16+11</f>
@@ -23147,10 +23181,10 @@
         <v>42535</v>
       </c>
       <c r="C99" s="74" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D99" s="75" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E99" s="74" t="n">
         <f aca="false">IF(mmn!A99=MEG!A99,MEG!E99)</f>
@@ -23204,10 +23238,10 @@
         <v>6</v>
       </c>
       <c r="U99" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V99" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W99" s="76" t="n">
         <v>1</v>
@@ -23223,7 +23257,7 @@
       <c r="AB99" s="76"/>
       <c r="AC99" s="76"/>
       <c r="AD99" s="76" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AE99" s="76" t="n">
         <f aca="false">7*16+11</f>
@@ -23241,10 +23275,10 @@
         <v>42411</v>
       </c>
       <c r="C100" s="74" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D100" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E100" s="74" t="n">
         <f aca="false">IF(mmn!A100=MEG!A100,MEG!E100)</f>
@@ -23297,10 +23331,10 @@
         <v>6</v>
       </c>
       <c r="U100" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V100" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W100" s="76" t="n">
         <v>0</v>
@@ -23312,7 +23346,7 @@
       <c r="AB100" s="76"/>
       <c r="AC100" s="76"/>
       <c r="AD100" s="76" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AE100" s="76" t="n">
         <f aca="false">7*16+14</f>
@@ -23330,10 +23364,10 @@
         <v>42559</v>
       </c>
       <c r="C101" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D101" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E101" s="74" t="n">
         <f aca="false">IF(mmn!A101=MEG!A101,MEG!E101)</f>
@@ -23387,10 +23421,10 @@
         <v>6</v>
       </c>
       <c r="U101" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V101" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W101" s="76" t="n">
         <v>0</v>
@@ -23402,14 +23436,14 @@
       <c r="AB101" s="76"/>
       <c r="AC101" s="76"/>
       <c r="AD101" s="76" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AE101" s="76" t="n">
         <f aca="false">7*16+14</f>
         <v>126</v>
       </c>
       <c r="AF101" s="74" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AG101" s="74"/>
       <c r="AH101" s="74"/>
@@ -23422,10 +23456,10 @@
         <v>42417</v>
       </c>
       <c r="C102" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D102" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E102" s="74" t="n">
         <f aca="false">IF(mmn!A102=MEG!A102,MEG!E102)</f>
@@ -23479,10 +23513,10 @@
         <v>6</v>
       </c>
       <c r="U102" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V102" s="78" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="W102" s="76" t="n">
         <v>0</v>
@@ -23494,14 +23528,14 @@
       <c r="AB102" s="76"/>
       <c r="AC102" s="76"/>
       <c r="AD102" s="76" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AE102" s="76" t="n">
         <f aca="false">7*16+8</f>
         <v>120</v>
       </c>
       <c r="AF102" s="74" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG102" s="74"/>
       <c r="AH102" s="74"/>
@@ -23514,10 +23548,10 @@
         <v>42552</v>
       </c>
       <c r="C103" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D103" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E103" s="74" t="n">
         <f aca="false">IF(mmn!A103=MEG!A103,MEG!E103)</f>
@@ -23570,10 +23604,10 @@
         <v>6</v>
       </c>
       <c r="U103" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V103" s="78" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="W103" s="76" t="n">
         <v>0</v>
@@ -23585,7 +23619,7 @@
       <c r="AB103" s="76"/>
       <c r="AC103" s="76"/>
       <c r="AD103" s="76" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AE103" s="76" t="n">
         <f aca="false">7*16+8</f>
@@ -23603,10 +23637,10 @@
         <v>42459</v>
       </c>
       <c r="C104" s="74" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D104" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E104" s="74" t="n">
         <f aca="false">IF(mmn!A104=MEG!A104,MEG!E104)</f>
@@ -23660,10 +23694,10 @@
         <v>6</v>
       </c>
       <c r="U104" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V104" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W104" s="76" t="n">
         <v>0</v>
@@ -23675,7 +23709,7 @@
       <c r="AB104" s="76"/>
       <c r="AC104" s="76"/>
       <c r="AD104" s="76" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AE104" s="76" t="n">
         <f aca="false">7*16+10</f>
@@ -23693,10 +23727,10 @@
         <v>42465</v>
       </c>
       <c r="C105" s="74" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D105" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E105" s="74" t="n">
         <f aca="false">IF(mmn!A105=MEG!A105,MEG!E105)</f>
@@ -23750,10 +23784,10 @@
         <v>6</v>
       </c>
       <c r="U105" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V105" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W105" s="76" t="n">
         <v>0</v>
@@ -23765,7 +23799,7 @@
       <c r="AB105" s="76"/>
       <c r="AC105" s="76"/>
       <c r="AD105" s="76" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AE105" s="76" t="n">
         <f aca="false">7*16+5</f>
@@ -23783,10 +23817,10 @@
         <v>42587</v>
       </c>
       <c r="C106" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D106" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E106" s="74" t="n">
         <f aca="false">IF(mmn!A106=MEG!A106,MEG!E106)</f>
@@ -23840,10 +23874,10 @@
         <v>6</v>
       </c>
       <c r="U106" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V106" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W106" s="76" t="n">
         <v>0</v>
@@ -23855,7 +23889,7 @@
       <c r="AB106" s="76"/>
       <c r="AC106" s="76"/>
       <c r="AD106" s="76" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AE106" s="76" t="n">
         <f aca="false">7*16+5</f>
@@ -23873,10 +23907,10 @@
         <v>42466</v>
       </c>
       <c r="C107" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D107" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E107" s="74" t="n">
         <f aca="false">IF(mmn!A107=MEG!A107,MEG!E107)</f>
@@ -23930,10 +23964,10 @@
         <v>7</v>
       </c>
       <c r="U107" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V107" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W107" s="76" t="n">
         <v>0</v>
@@ -23945,7 +23979,7 @@
       <c r="AB107" s="76"/>
       <c r="AC107" s="76"/>
       <c r="AD107" s="76" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AE107" s="76" t="n">
         <f aca="false">9*16+3</f>
@@ -23963,10 +23997,10 @@
         <v>42594</v>
       </c>
       <c r="C108" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D108" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E108" s="74" t="n">
         <f aca="false">IF(mmn!A108=MEG!A108,MEG!E108)</f>
@@ -24020,10 +24054,10 @@
         <v>7</v>
       </c>
       <c r="U108" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V108" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W108" s="76" t="n">
         <v>0</v>
@@ -24035,7 +24069,7 @@
       <c r="AB108" s="76"/>
       <c r="AC108" s="76"/>
       <c r="AD108" s="76" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AE108" s="76" t="n">
         <f aca="false">9*16+3</f>
@@ -24053,10 +24087,10 @@
         <v>42472</v>
       </c>
       <c r="C109" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D109" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E109" s="74" t="n">
         <f aca="false">IF(mmn!A109=MEG!A109,MEG!E109)</f>
@@ -24110,10 +24144,10 @@
         <v>6</v>
       </c>
       <c r="U109" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V109" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W109" s="76" t="n">
         <v>0</v>
@@ -24125,7 +24159,7 @@
       <c r="AB109" s="76"/>
       <c r="AC109" s="76"/>
       <c r="AD109" s="76" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AE109" s="76" t="n">
         <f aca="false">8*16+7</f>
@@ -24143,10 +24177,10 @@
         <v>42606</v>
       </c>
       <c r="C110" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D110" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E110" s="74" t="n">
         <f aca="false">IF(mmn!A110=MEG!A110,MEG!E110)</f>
@@ -24200,10 +24234,10 @@
         <v>6</v>
       </c>
       <c r="U110" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V110" s="78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W110" s="76" t="n">
         <v>0</v>
@@ -24215,14 +24249,14 @@
       <c r="AB110" s="76"/>
       <c r="AC110" s="76"/>
       <c r="AD110" s="76" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AE110" s="76" t="n">
         <f aca="false">8*16+7</f>
         <v>135</v>
       </c>
       <c r="AF110" s="74" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AG110" s="74"/>
       <c r="AH110" s="74"/>
@@ -24235,10 +24269,10 @@
         <v>42235</v>
       </c>
       <c r="C111" s="74" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D111" s="75" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E111" s="74" t="n">
         <f aca="false">IF(mmn!A111=MEG!A111,MEG!E111)</f>
@@ -24295,14 +24329,14 @@
       <c r="AB111" s="76"/>
       <c r="AC111" s="76"/>
       <c r="AD111" s="76" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AE111" s="76" t="n">
         <f aca="false">8*16+2</f>
         <v>130</v>
       </c>
       <c r="AF111" s="74" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AG111" s="74"/>
       <c r="AH111" s="74"/>
@@ -24315,10 +24349,10 @@
         <v>42234</v>
       </c>
       <c r="C112" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D112" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E112" s="74" t="n">
         <f aca="false">IF(mmn!A112=MEG!A112,MEG!E112)</f>
@@ -24372,10 +24406,10 @@
         <v>7</v>
       </c>
       <c r="U112" s="76" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V112" s="76" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W112" s="76" t="n">
         <v>0</v>
@@ -24387,7 +24421,7 @@
       <c r="AB112" s="76"/>
       <c r="AC112" s="76"/>
       <c r="AD112" s="76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE112" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -24405,10 +24439,10 @@
         <v>42373</v>
       </c>
       <c r="C113" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D113" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E113" s="74" t="n">
         <f aca="false">IF(mmn!A113=MEG!A113,MEG!E113)</f>
@@ -24462,10 +24496,10 @@
         <v>7</v>
       </c>
       <c r="U113" s="76" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V113" s="76" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W113" s="76" t="n">
         <v>0</v>
@@ -24477,7 +24511,7 @@
       <c r="AB113" s="76"/>
       <c r="AC113" s="76"/>
       <c r="AD113" s="76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE113" s="76" t="n">
         <f aca="false">6*16+15</f>
@@ -24495,10 +24529,10 @@
         <v>42237</v>
       </c>
       <c r="C114" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D114" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E114" s="74" t="n">
         <f aca="false">IF(mmn!A114=MEG!A114,MEG!E114)</f>
@@ -24550,10 +24584,10 @@
         <v>7</v>
       </c>
       <c r="U114" s="76" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V114" s="76" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W114" s="76" t="n">
         <v>0</v>
@@ -24565,14 +24599,14 @@
       <c r="AB114" s="76"/>
       <c r="AC114" s="76"/>
       <c r="AD114" s="76" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AE114" s="76" t="n">
         <f aca="false">7*16+14</f>
         <v>126</v>
       </c>
       <c r="AF114" s="74" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AG114" s="74"/>
       <c r="AH114" s="74"/>
@@ -24585,10 +24619,10 @@
         <v>42367</v>
       </c>
       <c r="C115" s="74" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D115" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E115" s="74" t="n">
         <f aca="false">IF(mmn!A115=MEG!A115,MEG!E115)</f>
@@ -24641,10 +24675,10 @@
         <v>7</v>
       </c>
       <c r="U115" s="76" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V115" s="76" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="W115" s="76" t="n">
         <v>0</v>
@@ -24656,7 +24690,7 @@
       <c r="AB115" s="76"/>
       <c r="AC115" s="76"/>
       <c r="AD115" s="76" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AE115" s="76" t="n">
         <f aca="false">7*16+14</f>
@@ -24674,10 +24708,10 @@
         <v>42250</v>
       </c>
       <c r="C116" s="74" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D116" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E116" s="74" t="n">
         <f aca="false">IF(mmn!A116=MEG!A116,MEG!E116)</f>
@@ -24742,7 +24776,7 @@
       <c r="AB116" s="76"/>
       <c r="AC116" s="76"/>
       <c r="AD116" s="76" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AE116" s="76" t="n">
         <f aca="false">7*16+12</f>
@@ -24760,10 +24794,10 @@
         <v>42373</v>
       </c>
       <c r="C117" s="74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D117" s="75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E117" s="74" t="n">
         <f aca="false">IF(mmn!A117=MEG!A117,MEG!E117)</f>
@@ -24828,7 +24862,7 @@
       <c r="AB117" s="76"/>
       <c r="AC117" s="76"/>
       <c r="AD117" s="76" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AE117" s="76" t="n">
         <f aca="false">7*16+12</f>
@@ -24871,69 +24905,69 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="84" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C11" s="85"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="86" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B12" s="87"/>
       <c r="C12" s="88"/>
@@ -24943,7 +24977,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C13" s="85"/>
     </row>
@@ -24952,7 +24986,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C14" s="85"/>
     </row>
@@ -24961,7 +24995,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C15" s="85"/>
     </row>
@@ -24970,7 +25004,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C16" s="85"/>
     </row>
@@ -24979,7 +25013,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C17" s="85"/>
     </row>
@@ -24988,7 +25022,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C18" s="85"/>
     </row>
@@ -24997,28 +25031,28 @@
         <v>7</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C19" s="85"/>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="84" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="86" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25026,7 +25060,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25034,7 +25068,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25042,7 +25076,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25050,7 +25084,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25058,7 +25092,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -25113,22 +25147,22 @@
         <v>233</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>270</v>
+        <v>459</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>271</v>
+        <v>460</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>272</v>
+        <v>461</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>293</v>
+        <v>463</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="59"/>
@@ -25508,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="93" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="59"/>
@@ -26809,7 +26843,7 @@
       <c r="K32" s="94"/>
       <c r="L32" s="59"/>
       <c r="M32" s="60" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
@@ -29164,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="91" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K76" s="98"/>
       <c r="L76" s="59"/>
@@ -30550,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="91" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K102" s="92"/>
       <c r="L102" s="59"/>
@@ -31308,7 +31342,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="97" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="K116" s="92"/>
       <c r="L116" s="59"/>
@@ -31436,13 +31470,13 @@
         <v>233</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>270</v>
+        <v>459</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H1" s="59"/>
       <c r="I1" s="59"/>
@@ -31721,7 +31755,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
@@ -33047,7 +33081,7 @@
         <v>1800</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>1</v>
@@ -33875,7 +33909,7 @@
         <v>1800</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F54" s="18" t="n">
         <v>1</v>
@@ -36798,7 +36832,7 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
     </sheetView>
   </sheetViews>
@@ -37853,7 +37887,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="99" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="F52" s="99" t="n">
         <v>2</v>
